--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -139,16 +139,16 @@
     <t>Freight</t>
   </si>
   <si>
-    <t>We assume motorbikes' percentage fuel use reduction is the same as that of LDVs.</t>
-  </si>
-  <si>
-    <t>We assign zeros to vehicle types that are unlikely to be able to be electrified</t>
-  </si>
-  <si>
-    <t>(and to freight motorbikes, which are not used in the U.S. version of the model).</t>
-  </si>
-  <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>For the LCFS to work correctly, all on-road modes need to have the same value, so we</t>
+  </si>
+  <si>
+    <t>use the passenger LDVs value for all on-road modes.  (It is very close to the calculated</t>
+  </si>
+  <si>
+    <t>passenger HDVs value in any case.)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -239,7 +239,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -620,22 +620,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -912,11 +912,12 @@
         <v>33</v>
       </c>
       <c r="B3" s="9">
-        <f>'HDVs, Rail'!B8</f>
-        <v>0.68881036513545346</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <f>$B$2</f>
+        <v>0.68595041322314043</v>
+      </c>
+      <c r="C3" s="9">
+        <f>$B$2</f>
+        <v>0.68595041322314043</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,8 +939,9 @@
         <f>'HDVs, Rail'!B9</f>
         <v>0.44713930348258707</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" s="9">
+        <f>B5</f>
+        <v>0.44713930348258707</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,11 +960,12 @@
         <v>37</v>
       </c>
       <c r="B7" s="9">
-        <f>B2</f>
+        <f>$B$2</f>
         <v>0.68595041322314043</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="9">
+        <f>$B$2</f>
+        <v>0.68595041322314043</v>
       </c>
     </row>
   </sheetData>
